--- a/data/recipients_sample.xlsx
+++ b/data/recipients_sample.xlsx
@@ -14,99 +14,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
-  <si>
-    <t>创业部部长</t>
-  </si>
-  <si>
-    <t>双创试用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副校长</t>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否签约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+  <si>
+    <t>省份</t>
+  </si>
+  <si>
+    <t>学校</t>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>部门/学院</t>
+  </si>
+  <si>
+    <t>职称</t>
+  </si>
+  <si>
+    <t>职务</t>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申领人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于课程（试用/正式）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>限定日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jerry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽</t>
+  </si>
+  <si>
+    <t>安徽工业大学</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>汉</t>
+  </si>
+  <si>
+    <t>副院长</t>
+  </si>
+  <si>
+    <t>安徽建筑大学</t>
+  </si>
+  <si>
+    <t>汉族</t>
+  </si>
+  <si>
+    <t>团委书记</t>
+  </si>
+  <si>
+    <t>副处长</t>
   </si>
   <si>
     <t>996067941@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>faker@example.com</t>
+    <t>guoyue@mosoedu.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>innomal@ example.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nie@edu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guoyuetest@edu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qieng@edu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈哈</t>
+    <t>手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +98,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -151,6 +116,19 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -204,9 +182,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -226,30 +204,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -630,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -641,236 +758,244 @@
     <col min="7" max="7" width="15.125" customWidth="1"/>
     <col min="8" max="8" width="25.125" customWidth="1"/>
     <col min="9" max="9" width="32.5" customWidth="1"/>
+    <col min="10" max="10" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="11" customFormat="1" ht="16.5">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="13">
+        <v>17090412975</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43397</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="6"/>
+      <c r="J2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43397</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
+      <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="14"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43563</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13">
+        <v>16601300258</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43563</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="H5" s="9"/>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43563</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="H6" s="9"/>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43563</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="6"/>
     </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H2:H5">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H5">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="H5:H6">
+    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H6">
+    <cfRule type="duplicateValues" dxfId="19" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G4">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G4">
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J4">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="J2:J4">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
-    <hyperlink ref="H6" r:id="rId5"/>
-    <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/recipients_sample.xlsx
+++ b/data/recipients_sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>省份</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,11 +762,12 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
     <col min="7" max="7" width="15.125" customWidth="1"/>
     <col min="8" max="8" width="25.125" customWidth="1"/>
     <col min="9" max="9" width="32.5" customWidth="1"/>
@@ -800,7 +813,9 @@
       <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
@@ -829,7 +844,9 @@
       <c r="B3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
@@ -855,7 +872,9 @@
       <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
